--- a/graphs/AllQueries_ALL_Payload(1024).xlsx
+++ b/graphs/AllQueries_ALL_Payload(1024).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1425,7 +1425,7 @@
         <c:axId val="142078943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.27100000000000002"/>
+          <c:max val="0.27500000000000002"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1474,8 +1474,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.86487301276213091"/>
-              <c:y val="0.74857611548556435"/>
+              <c:x val="0.81329917032698873"/>
+              <c:y val="0.75552055993000877"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4909,7 +4909,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4949,7 +4949,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5014,7 +5014,7 @@
         <c:axId val="155051183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4250"/>
+          <c:max val="4280"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5063,7 +5063,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.91871067669494466"/>
+              <c:x val="0.82458411512206597"/>
               <c:y val="0.92998077434678028"/>
             </c:manualLayout>
           </c:layout>
@@ -5147,8 +5147,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27429184641125559"/>
-          <c:y val="7.3323514811432272E-4"/>
+          <c:x val="0.23355864885524749"/>
+          <c:y val="2.4747886138057193E-3"/>
           <c:w val="0.72281268095925877"/>
           <c:h val="5.2905847460891289E-2"/>
         </c:manualLayout>
@@ -5166,7 +5166,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5993,7 +5993,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.19541314634940704"/>
           <c:y val="0.13660688247302422"/>
-          <c:w val="0.76486675479433686"/>
+          <c:w val="0.76206257064582261"/>
           <c:h val="0.75807906824146987"/>
         </c:manualLayout>
       </c:layout>
@@ -6431,7 +6431,7 @@
         <c:axId val="142078943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.01"/>
+          <c:max val="1.04"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6480,7 +6480,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.85034063260340631"/>
+              <c:x val="0.80654501216545016"/>
               <c:y val="0.77774596357273518"/>
             </c:manualLayout>
           </c:layout>
@@ -6568,7 +6568,7 @@
           <c:yMode val="edge"/>
           <c:x val="2.3758070387187007E-3"/>
           <c:y val="2.5252525252525276E-3"/>
-          <c:w val="0.99762419296128135"/>
+          <c:w val="0.9465293024503324"/>
           <c:h val="9.9569845435987167E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -12507,7 +12507,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42558.935909953703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="27">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A41:G68" sheet="Tradeoff"/>
+    <worksheetSource ref="A41:G68" sheet="Tradeoff" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Configuration" numFmtId="0">
@@ -13758,7 +13758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0" sortType="descending">
@@ -39978,8 +39978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40489,8 +40489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/graphs/AllQueries_ALL_Payload(1024).xlsx
+++ b/graphs/AllQueries_ALL_Payload(1024).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="133">
   <si>
     <t>Test053109</t>
   </si>
@@ -606,6 +606,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1624,6 +1625,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2020,6 +2022,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2967,6 +2970,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14342,10 +14346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ132"/>
+  <dimension ref="A1:BQ133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="G84" workbookViewId="0">
+      <selection activeCell="Z113" sqref="Z113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25296,7 +25300,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>77</v>
       </c>
@@ -25325,7 +25329,7 @@
         <v>4.6490124581407075</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>78</v>
       </c>
@@ -25350,7 +25354,7 @@
         <v>5408.1813590702113</v>
       </c>
     </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>79</v>
       </c>
@@ -25375,7 +25379,7 @@
         <v>559856.99721524282</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>80</v>
       </c>
@@ -25400,7 +25404,7 @@
         <v>87242.096086886217</v>
       </c>
     </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>81</v>
       </c>
@@ -25429,7 +25433,7 @@
         <v>115433.61556312817</v>
       </c>
     </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>82</v>
       </c>
@@ -25454,7 +25458,7 @@
         <v>234.9906658024118</v>
       </c>
     </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>83</v>
       </c>
@@ -25479,7 +25483,7 @@
         <v>1.516274564971573</v>
       </c>
     </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>84</v>
       </c>
@@ -25504,7 +25508,7 @@
         <v>1.4836238880905983</v>
       </c>
     </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>85</v>
       </c>
@@ -25533,12 +25537,12 @@
         <v>1.8525898495330855</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.3">
       <c r="W92" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>86</v>
       </c>
@@ -25551,8 +25555,11 @@
       <c r="Y93" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="Z93" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>68</v>
       </c>
@@ -25564,8 +25571,12 @@
         <f>I4</f>
         <v>1.5570009330462504</v>
       </c>
+      <c r="Z94" s="7">
+        <f>MAX(W94:Y94)</f>
+        <v>1.6383436352034169</v>
+      </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>69</v>
       </c>
@@ -25581,8 +25592,12 @@
         <f>I9</f>
         <v>0.96699467245557802</v>
       </c>
+      <c r="Z95" s="7">
+        <f t="shared" ref="Z95:Z111" si="60">MAX(W95:Y95)</f>
+        <v>1.0700796414277169</v>
+      </c>
     </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>70</v>
       </c>
@@ -25598,8 +25613,12 @@
         <f>I14</f>
         <v>1.39859813934859</v>
       </c>
+      <c r="Z96" s="7">
+        <f t="shared" si="60"/>
+        <v>1.4671306814161542</v>
+      </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>71</v>
       </c>
@@ -25615,8 +25634,12 @@
         <f>I19</f>
         <v>1.1903807531842328</v>
       </c>
+      <c r="Z97" s="7">
+        <f t="shared" si="60"/>
+        <v>1.2509069672657931</v>
+      </c>
     </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>72</v>
       </c>
@@ -25632,8 +25655,12 @@
         <f>I24</f>
         <v>1.3937010050933043</v>
       </c>
+      <c r="Z98" s="7">
+        <f t="shared" si="60"/>
+        <v>1.5962238578181176</v>
+      </c>
     </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>73</v>
       </c>
@@ -25645,8 +25672,12 @@
         <f>I27</f>
         <v>0.78394129696217085</v>
       </c>
+      <c r="Z99" s="7">
+        <f t="shared" si="60"/>
+        <v>0.78394129696217085</v>
+      </c>
     </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>74</v>
       </c>
@@ -25658,8 +25689,12 @@
         <f>I30</f>
         <v>0.90163058079450664</v>
       </c>
+      <c r="Z100" s="7">
+        <f t="shared" si="60"/>
+        <v>0.90163058079450664</v>
+      </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>75</v>
       </c>
@@ -25675,8 +25710,12 @@
         <f>I35</f>
         <v>1.8008559624035561</v>
       </c>
+      <c r="Z101" s="7">
+        <f t="shared" si="60"/>
+        <v>2.1389771396330794</v>
+      </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>76</v>
       </c>
@@ -25692,8 +25731,12 @@
         <f>I40</f>
         <v>1.3414379538330174</v>
       </c>
+      <c r="Z102" s="7">
+        <f t="shared" si="60"/>
+        <v>1.4882604035326192</v>
+      </c>
     </row>
-    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>77</v>
       </c>
@@ -25709,8 +25752,12 @@
         <f>I44</f>
         <v>0.87062381127433885</v>
       </c>
+      <c r="Z103" s="7">
+        <f t="shared" si="60"/>
+        <v>0.87062381127433885</v>
+      </c>
     </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>78</v>
       </c>
@@ -25722,8 +25769,12 @@
         <f>I46</f>
         <v>1.25606138394375</v>
       </c>
+      <c r="Z104" s="7">
+        <f t="shared" si="60"/>
+        <v>1.25606138394375</v>
+      </c>
     </row>
-    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>79</v>
       </c>
@@ -25735,8 +25786,12 @@
         <f>I49</f>
         <v>1.2601227172212346</v>
       </c>
+      <c r="Z105" s="7">
+        <f t="shared" si="60"/>
+        <v>1.2601227172212346</v>
+      </c>
     </row>
-    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>80</v>
       </c>
@@ -25748,8 +25803,12 @@
         <f>I51</f>
         <v>1.3866624613750191</v>
       </c>
+      <c r="Z106" s="7">
+        <f t="shared" si="60"/>
+        <v>1.3866624613750191</v>
+      </c>
     </row>
-    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>81</v>
       </c>
@@ -25765,8 +25824,12 @@
         <f>I56</f>
         <v>1.1431163071351549</v>
       </c>
+      <c r="Z107" s="7">
+        <f t="shared" si="60"/>
+        <v>1.337959712519575</v>
+      </c>
     </row>
-    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>82</v>
       </c>
@@ -25778,8 +25841,12 @@
         <f>I58</f>
         <v>1.2432157892189222</v>
       </c>
+      <c r="Z108" s="7">
+        <f t="shared" si="60"/>
+        <v>1.3574585698838386</v>
+      </c>
     </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>83</v>
       </c>
@@ -25791,8 +25858,12 @@
         <f>I62</f>
         <v>0.73301926320257482</v>
       </c>
+      <c r="Z109" s="7">
+        <f t="shared" si="60"/>
+        <v>0.73301926320257482</v>
+      </c>
     </row>
-    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>84</v>
       </c>
@@ -25804,8 +25875,12 @@
         <f>I64</f>
         <v>0.61816854720001169</v>
       </c>
+      <c r="Z110" s="7">
+        <f t="shared" si="60"/>
+        <v>0.61816854720001169</v>
+      </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>85</v>
       </c>
@@ -25821,13 +25896,23 @@
         <f>I66</f>
         <v>1.0287391594951676</v>
       </c>
+      <c r="Z111" s="7">
+        <f t="shared" si="60"/>
+        <v>1.0287391594951676</v>
+      </c>
     </row>
-    <row r="113" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="Z112" s="7">
+        <f>AVERAGE(Z94:Z111)</f>
+        <v>1.2324616572316156</v>
+      </c>
+    </row>
+    <row r="113" spans="3:26" x14ac:dyDescent="0.3">
       <c r="W113" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>86</v>
       </c>
@@ -25840,8 +25925,11 @@
       <c r="Y114" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="Z114" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="115" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>68</v>
       </c>
@@ -25853,8 +25941,12 @@
         <f>J4</f>
         <v>1.0717615661368511</v>
       </c>
+      <c r="Z115" s="7">
+        <f>MAX(W115:Y115)</f>
+        <v>1.7806074127081006</v>
+      </c>
     </row>
-    <row r="116" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>69</v>
       </c>
@@ -25870,8 +25962,12 @@
         <f>J9</f>
         <v>0.84691128283266404</v>
       </c>
+      <c r="Z116" s="7">
+        <f t="shared" ref="Z116:Z132" si="61">MAX(W116:Y116)</f>
+        <v>1.1643582547125635</v>
+      </c>
     </row>
-    <row r="117" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>70</v>
       </c>
@@ -25887,8 +25983,12 @@
         <f>J14</f>
         <v>0.8787802838739005</v>
       </c>
+      <c r="Z117" s="7">
+        <f t="shared" si="61"/>
+        <v>0.96397202622847167</v>
+      </c>
     </row>
-    <row r="118" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>71</v>
       </c>
@@ -25904,8 +26004,12 @@
         <f>J19</f>
         <v>1.0823363131598236</v>
       </c>
+      <c r="Z118" s="7">
+        <f t="shared" si="61"/>
+        <v>1.0823363131598236</v>
+      </c>
     </row>
-    <row r="119" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>72</v>
       </c>
@@ -25921,8 +26025,12 @@
         <f>J24</f>
         <v>1.0266062177816577</v>
       </c>
+      <c r="Z119" s="7">
+        <f t="shared" si="61"/>
+        <v>1.2961180815964106</v>
+      </c>
     </row>
-    <row r="120" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>73</v>
       </c>
@@ -25934,8 +26042,12 @@
         <f>J27</f>
         <v>0.78153238724266949</v>
       </c>
+      <c r="Z120" s="7">
+        <f t="shared" si="61"/>
+        <v>0.78153238724266949</v>
+      </c>
     </row>
-    <row r="121" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>74</v>
       </c>
@@ -25947,8 +26059,12 @@
         <f>J30</f>
         <v>0.82454081613884589</v>
       </c>
+      <c r="Z121" s="7">
+        <f t="shared" si="61"/>
+        <v>0.82454081613884589</v>
+      </c>
     </row>
-    <row r="122" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>75</v>
       </c>
@@ -25964,8 +26080,12 @@
         <f>J35</f>
         <v>1.1598726547364426</v>
       </c>
+      <c r="Z122" s="7">
+        <f t="shared" si="61"/>
+        <v>1.3461774797848793</v>
+      </c>
     </row>
-    <row r="123" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>76</v>
       </c>
@@ -25981,8 +26101,12 @@
         <f>J40</f>
         <v>1.3267509278783496</v>
       </c>
+      <c r="Z123" s="7">
+        <f t="shared" si="61"/>
+        <v>1.5661189398410149</v>
+      </c>
     </row>
-    <row r="124" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>77</v>
       </c>
@@ -25998,8 +26122,12 @@
         <f>J44</f>
         <v>0.74625088930106731</v>
       </c>
+      <c r="Z124" s="7">
+        <f t="shared" si="61"/>
+        <v>0.74625088930106731</v>
+      </c>
     </row>
-    <row r="125" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>78</v>
       </c>
@@ -26011,8 +26139,12 @@
         <f>J46</f>
         <v>0.82409728305311369</v>
       </c>
+      <c r="Z125" s="7">
+        <f t="shared" si="61"/>
+        <v>1.0152242763387007</v>
+      </c>
     </row>
-    <row r="126" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>79</v>
       </c>
@@ -26024,8 +26156,12 @@
         <f>J49</f>
         <v>1.4270073430961088</v>
       </c>
+      <c r="Z126" s="7">
+        <f t="shared" si="61"/>
+        <v>1.4270073430961088</v>
+      </c>
     </row>
-    <row r="127" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>80</v>
       </c>
@@ -26037,8 +26173,12 @@
         <f>J51</f>
         <v>0.74422714158338354</v>
       </c>
+      <c r="Z127" s="7">
+        <f t="shared" si="61"/>
+        <v>0.84808618778929512</v>
+      </c>
     </row>
-    <row r="128" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>81</v>
       </c>
@@ -26054,8 +26194,12 @@
         <f>J56</f>
         <v>0.81324824374350269</v>
       </c>
+      <c r="Z128" s="7">
+        <f t="shared" si="61"/>
+        <v>1.2123025730494159</v>
+      </c>
     </row>
-    <row r="129" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>82</v>
       </c>
@@ -26067,8 +26211,12 @@
         <f>J58</f>
         <v>0.70369889144146214</v>
       </c>
+      <c r="Z129" s="7">
+        <f t="shared" si="61"/>
+        <v>0.95124961011195464</v>
+      </c>
     </row>
-    <row r="130" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>83</v>
       </c>
@@ -26080,8 +26228,12 @@
         <f>J62</f>
         <v>0.89793911019682437</v>
       </c>
+      <c r="Z130" s="7">
+        <f t="shared" si="61"/>
+        <v>0.89793911019682437</v>
+      </c>
     </row>
-    <row r="131" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>84</v>
       </c>
@@ -26093,8 +26245,12 @@
         <f>J64</f>
         <v>0.74586587845412078</v>
       </c>
+      <c r="Z131" s="7">
+        <f t="shared" si="61"/>
+        <v>0.74586587845412078</v>
+      </c>
     </row>
-    <row r="132" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>85</v>
       </c>
@@ -26109,6 +26265,16 @@
       <c r="Y132" s="7">
         <f>J66</f>
         <v>0.9889166791901931</v>
+      </c>
+      <c r="Z132" s="7">
+        <f t="shared" si="61"/>
+        <v>0.9889166791901931</v>
+      </c>
+    </row>
+    <row r="133" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="Z133" s="7">
+        <f>AVERAGE(Z115:Z132)</f>
+        <v>1.0910335699411369</v>
       </c>
     </row>
   </sheetData>
@@ -26128,8 +26294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU59"/>
   <sheetViews>
-    <sheetView topLeftCell="AD10" workbookViewId="0">
-      <selection activeCell="AH53" sqref="AH53"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL118" sqref="AL118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39978,7 +40144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/graphs/AllQueries_ALL_Payload(1024).xlsx
+++ b/graphs/AllQueries_ALL_Payload(1024).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -14348,7 +14348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G84" workbookViewId="0">
+    <sheetView topLeftCell="G84" workbookViewId="0">
       <selection activeCell="Z113" sqref="Z113"/>
     </sheetView>
   </sheetViews>
@@ -40655,13 +40655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" customWidth="1"/>
     <col min="12" max="12" width="13.77734375" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>

--- a/graphs/AllQueries_ALL_Payload(1024).xlsx
+++ b/graphs/AllQueries_ALL_Payload(1024).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -4917,7 +4917,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4930,7 +4930,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:rPr lang="en-US" sz="1300" b="1"/>
                   <a:t>MainKey Granularity / FilterSize(KB)</a:t>
                 </a:r>
               </a:p>
@@ -4941,7 +4941,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="3.3944331296673455E-3"/>
-              <c:y val="4.8013394877364172E-3"/>
+              <c:y val="3.0597860220450504E-3"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4957,7 +4957,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4992,7 +4992,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5058,7 +5058,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" b="1"/>
-                  <a:t>Reduction Ratio</a:t>
+                  <a:t>Data Reduction Ratio</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5067,7 +5067,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.82458411512206597"/>
+              <c:x val="0.79562118126272907"/>
               <c:y val="0.92998077434678028"/>
             </c:manualLayout>
           </c:layout>
@@ -5118,7 +5118,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -36237,7 +36237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:G68"/>
     </sheetView>
   </sheetViews>
@@ -40144,7 +40144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -40655,7 +40655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
